--- a/Shopping List.xlsx
+++ b/Shopping List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
   <si>
     <t>Cost</t>
   </si>
@@ -258,6 +258,12 @@
   </si>
   <si>
     <t>all</t>
+  </si>
+  <si>
+    <t>MOSFETS</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com.au/product-detail/en/DMP2035U-7/DMP2035U-7DICT-ND/2181234?WT.srch=1&amp;mkwid=s0blcc0dL&amp;pcrid=89237430569&amp;pkw=_cat%3Adigikey.com.au&amp;pmt=b&amp;pdv=c</t>
   </si>
 </sst>
 </file>
@@ -633,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -735,7 +741,7 @@
         <v>116.65</v>
       </c>
       <c r="D10" s="5">
-        <f t="shared" ref="D10:D46" si="0">C10*B10</f>
+        <f t="shared" ref="D10:D49" si="0">C10*B10</f>
         <v>116.65</v>
       </c>
       <c r="E10" t="s">
@@ -1281,17 +1287,45 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D47" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E47" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+      <c r="D48" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>0.67</v>
+      </c>
+      <c r="D49" s="5">
+        <f t="shared" si="0"/>
+        <v>6.7</v>
+      </c>
+      <c r="E49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D48" s="5">
-        <f>SUM(D8:D44)</f>
-        <v>620.80000000000007</v>
+      <c r="D53" s="5">
+        <f>SUM(D8:D50)</f>
+        <v>646.00000000000011</v>
       </c>
     </row>
   </sheetData>
